--- a/data/trans_orig/IP12BS03-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP12BS03-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDC932C0-E789-4657-BF32-28234EDCBF75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C681A31D-E432-47F8-A345-F05F829EEED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{010C096F-CD3D-4E5A-A84A-BB2697B94E07}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{6E23A530-9F41-4A19-87F6-E6276FC2FCCD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -67,19 +67,16 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>Menos de 2</t>
   </si>
   <si>
-    <t>Contusión, lesión o heridas</t>
+    <t>Dolor de cabeza</t>
   </si>
   <si>
     <t>—%</t>
   </si>
   <si>
-    <t>Dolor abdominal</t>
-  </si>
-  <si>
-    <t>Dolor de cabeza</t>
+    <t>Contusión, lesión o heridas</t>
   </si>
   <si>
     <t>Dolor de oídos, otitis</t>
@@ -88,40 +85,49 @@
     <t>Fiebre</t>
   </si>
   <si>
-    <t>Otros</t>
+    <t>Vómitos</t>
   </si>
   <si>
-    <t>Vómitos</t>
+    <t>Dolor abdominal</t>
+  </si>
+  <si>
+    <t>Otros</t>
   </si>
   <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
     <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
   </si>
   <si>
     <t>51,86%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
     <t>33,83%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -139,13 +145,13 @@
     <t>31,4%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>Menores según el tipo de dolor sufrido que le limita 3 en 2012 (Tasa respuesta: 0,38%)</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>60,58%</t>
   </si>
   <si>
-    <t>Menores según el tipo de dolor sufrido que le limita 3 en 2012 (Tasa respuesta: 0,38%)</t>
+    <t>39,42%</t>
   </si>
   <si>
     <t>49,79%</t>
@@ -154,16 +160,22 @@
     <t>50,21%</t>
   </si>
   <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
     <t>46,49%</t>
   </si>
   <si>
     <t>53,51%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
   </si>
   <si>
     <t>17,92%</t>
@@ -178,31 +190,10 @@
     <t>56,56%</t>
   </si>
   <si>
-    <t>25,02%</t>
+    <t>36,52%</t>
   </si>
   <si>
     <t>30,57%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
   </si>
   <si>
     <t>15,1%</t>
@@ -226,9 +217,6 @@
     <t>75,3%</t>
   </si>
   <si>
-    <t>20,75%</t>
-  </si>
-  <si>
     <t>38,46%</t>
   </si>
   <si>
@@ -236,6 +224,18 @@
   </si>
   <si>
     <t>57,72%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
   </si>
   <si>
     <t>Menores según el tipo de dolor sufrido que le limita 3 en 2015 (Tasa respuesta: 0,09%)</t>
@@ -636,7 +636,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6DEB52A-F7C3-48C5-B1D8-13F51F046FBB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DA24097-C126-405E-8FA9-7ACDDB9B87AF}">
   <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1478,49 +1478,43 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
-      </c>
-      <c r="D20" s="7">
-        <v>700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
       </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
+      <c r="I20" s="7"/>
       <c r="J20" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="M20" s="7">
-        <v>1</v>
-      </c>
-      <c r="N20" s="7">
-        <v>700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N20" s="7"/>
       <c r="O20" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1531,47 +1525,41 @@
       <c r="C21" s="7">
         <v>0</v>
       </c>
-      <c r="D21" s="7">
-        <v>0</v>
-      </c>
+      <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
       </c>
-      <c r="I21" s="7">
-        <v>0</v>
-      </c>
+      <c r="I21" s="7"/>
       <c r="J21" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
       </c>
-      <c r="N21" s="7">
-        <v>0</v>
-      </c>
+      <c r="N21" s="7"/>
       <c r="O21" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1582,47 +1570,41 @@
       <c r="C22" s="7">
         <v>0</v>
       </c>
-      <c r="D22" s="7">
-        <v>0</v>
-      </c>
+      <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
       </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
+      <c r="I22" s="7"/>
       <c r="J22" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
       </c>
-      <c r="N22" s="7">
-        <v>0</v>
-      </c>
+      <c r="N22" s="7"/>
       <c r="O22" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1633,47 +1615,41 @@
       <c r="C23" s="7">
         <v>0</v>
       </c>
-      <c r="D23" s="7">
-        <v>0</v>
-      </c>
+      <c r="D23" s="7"/>
       <c r="E23" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="H23" s="7">
-        <v>1</v>
-      </c>
-      <c r="I23" s="7">
-        <v>720</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" s="7"/>
       <c r="J23" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="M23" s="7">
-        <v>1</v>
-      </c>
-      <c r="N23" s="7">
-        <v>720</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N23" s="7"/>
       <c r="O23" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1684,47 +1660,41 @@
       <c r="C24" s="7">
         <v>0</v>
       </c>
-      <c r="D24" s="7">
-        <v>0</v>
-      </c>
+      <c r="D24" s="7"/>
       <c r="E24" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
       </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
+      <c r="I24" s="7"/>
       <c r="J24" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
       </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
+      <c r="N24" s="7"/>
       <c r="O24" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -1735,47 +1705,41 @@
       <c r="C25" s="7">
         <v>0</v>
       </c>
-      <c r="D25" s="7">
-        <v>0</v>
-      </c>
+      <c r="D25" s="7"/>
       <c r="E25" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
       </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
+      <c r="I25" s="7"/>
       <c r="J25" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
       </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
+      <c r="N25" s="7"/>
       <c r="O25" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -1784,49 +1748,43 @@
         <v>17</v>
       </c>
       <c r="C26" s="7">
-        <v>1</v>
-      </c>
-      <c r="D26" s="7">
-        <v>650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D26" s="7"/>
       <c r="E26" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
       </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
+      <c r="I26" s="7"/>
       <c r="J26" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="M26" s="7">
-        <v>1</v>
-      </c>
-      <c r="N26" s="7">
-        <v>650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N26" s="7"/>
       <c r="O26" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -1835,54 +1793,48 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>2</v>
-      </c>
-      <c r="D27" s="7">
-        <v>1350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D27" s="7"/>
       <c r="E27" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="H27" s="7">
-        <v>1</v>
-      </c>
-      <c r="I27" s="7">
-        <v>720</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" s="7"/>
       <c r="J27" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="M27" s="7">
-        <v>3</v>
-      </c>
-      <c r="N27" s="7">
-        <v>2070</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N27" s="7"/>
       <c r="O27" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2244,7 +2196,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>10</v>
@@ -2252,41 +2204,47 @@
       <c r="C36" s="7">
         <v>0</v>
       </c>
-      <c r="D36" s="7"/>
+      <c r="D36" s="7">
+        <v>0</v>
+      </c>
       <c r="E36" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
       </c>
-      <c r="I36" s="7"/>
+      <c r="I36" s="7">
+        <v>0</v>
+      </c>
       <c r="J36" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
       </c>
-      <c r="N36" s="7"/>
+      <c r="N36" s="7">
+        <v>0</v>
+      </c>
       <c r="O36" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2295,43 +2253,49 @@
         <v>12</v>
       </c>
       <c r="C37" s="7">
-        <v>0</v>
-      </c>
-      <c r="D37" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D37" s="7">
+        <v>700</v>
+      </c>
       <c r="E37" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
       </c>
-      <c r="I37" s="7"/>
+      <c r="I37" s="7">
+        <v>0</v>
+      </c>
       <c r="J37" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="M37" s="7">
-        <v>0</v>
-      </c>
-      <c r="N37" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N37" s="7">
+        <v>700</v>
+      </c>
       <c r="O37" s="7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2342,41 +2306,47 @@
       <c r="C38" s="7">
         <v>0</v>
       </c>
-      <c r="D38" s="7"/>
+      <c r="D38" s="7">
+        <v>0</v>
+      </c>
       <c r="E38" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="H38" s="7">
-        <v>0</v>
-      </c>
-      <c r="I38" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I38" s="7">
+        <v>720</v>
+      </c>
       <c r="J38" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="M38" s="7">
-        <v>0</v>
-      </c>
-      <c r="N38" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N38" s="7">
+        <v>720</v>
+      </c>
       <c r="O38" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -2387,41 +2357,47 @@
       <c r="C39" s="7">
         <v>0</v>
       </c>
-      <c r="D39" s="7"/>
+      <c r="D39" s="7">
+        <v>0</v>
+      </c>
       <c r="E39" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
       </c>
-      <c r="I39" s="7"/>
+      <c r="I39" s="7">
+        <v>0</v>
+      </c>
       <c r="J39" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
       </c>
-      <c r="N39" s="7"/>
+      <c r="N39" s="7">
+        <v>0</v>
+      </c>
       <c r="O39" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -2430,43 +2406,49 @@
         <v>15</v>
       </c>
       <c r="C40" s="7">
-        <v>0</v>
-      </c>
-      <c r="D40" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D40" s="7">
+        <v>650</v>
+      </c>
       <c r="E40" s="7" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
       </c>
-      <c r="I40" s="7"/>
+      <c r="I40" s="7">
+        <v>0</v>
+      </c>
       <c r="J40" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="M40" s="7">
-        <v>0</v>
-      </c>
-      <c r="N40" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N40" s="7">
+        <v>650</v>
+      </c>
       <c r="O40" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -2477,41 +2459,47 @@
       <c r="C41" s="7">
         <v>0</v>
       </c>
-      <c r="D41" s="7"/>
+      <c r="D41" s="7">
+        <v>0</v>
+      </c>
       <c r="E41" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
       </c>
-      <c r="I41" s="7"/>
+      <c r="I41" s="7">
+        <v>0</v>
+      </c>
       <c r="J41" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
       </c>
-      <c r="N41" s="7"/>
+      <c r="N41" s="7">
+        <v>0</v>
+      </c>
       <c r="O41" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -2522,41 +2510,47 @@
       <c r="C42" s="7">
         <v>0</v>
       </c>
-      <c r="D42" s="7"/>
+      <c r="D42" s="7">
+        <v>0</v>
+      </c>
       <c r="E42" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
       </c>
-      <c r="I42" s="7"/>
+      <c r="I42" s="7">
+        <v>0</v>
+      </c>
       <c r="J42" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
       </c>
-      <c r="N42" s="7"/>
+      <c r="N42" s="7">
+        <v>0</v>
+      </c>
       <c r="O42" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -2565,43 +2559,49 @@
         <v>3</v>
       </c>
       <c r="C43" s="7">
-        <v>0</v>
-      </c>
-      <c r="D43" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D43" s="7">
+        <v>1350</v>
+      </c>
       <c r="E43" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="H43" s="7">
-        <v>0</v>
-      </c>
-      <c r="I43" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I43" s="7">
+        <v>720</v>
+      </c>
       <c r="J43" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="M43" s="7">
-        <v>0</v>
-      </c>
-      <c r="N43" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="N43" s="7">
+        <v>2070</v>
+      </c>
       <c r="O43" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -2612,19 +2612,19 @@
         <v>10</v>
       </c>
       <c r="C44" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" s="7">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -2633,28 +2633,28 @@
         <v>0</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M44" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N44" s="7">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -2663,19 +2663,19 @@
         <v>12</v>
       </c>
       <c r="C45" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" s="7">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -2684,28 +2684,28 @@
         <v>0</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M45" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45" s="7">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -2720,43 +2720,43 @@
         <v>0</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H46" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" s="7">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M46" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N46" s="7">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -2771,43 +2771,43 @@
         <v>0</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G47" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H47" s="7">
+        <v>0</v>
+      </c>
+      <c r="I47" s="7">
+        <v>0</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M47" s="7">
+        <v>0</v>
+      </c>
+      <c r="N47" s="7">
+        <v>0</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="H47" s="7">
-        <v>1</v>
-      </c>
-      <c r="I47" s="7">
-        <v>720</v>
-      </c>
-      <c r="J47" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M47" s="7">
-        <v>1</v>
-      </c>
-      <c r="N47" s="7">
-        <v>720</v>
-      </c>
-      <c r="O47" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -2816,19 +2816,19 @@
         <v>15</v>
       </c>
       <c r="C48" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H48" s="7">
         <v>0</v>
@@ -2837,28 +2837,28 @@
         <v>0</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M48" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N48" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -2873,43 +2873,43 @@
         <v>0</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G49" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H49" s="7">
+        <v>0</v>
+      </c>
+      <c r="I49" s="7">
+        <v>0</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M49" s="7">
+        <v>0</v>
+      </c>
+      <c r="N49" s="7">
+        <v>0</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q49" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="H49" s="7">
-        <v>0</v>
-      </c>
-      <c r="I49" s="7">
-        <v>0</v>
-      </c>
-      <c r="J49" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M49" s="7">
-        <v>0</v>
-      </c>
-      <c r="N49" s="7">
-        <v>0</v>
-      </c>
-      <c r="O49" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P49" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -2918,19 +2918,19 @@
         <v>17</v>
       </c>
       <c r="C50" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -2939,28 +2939,28 @@
         <v>0</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M50" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N50" s="7">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,13 +2975,13 @@
         <v>1350</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H51" s="7">
         <v>1</v>
@@ -2990,13 +2990,13 @@
         <v>720</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M51" s="7">
         <v>3</v>
@@ -3005,13 +3005,13 @@
         <v>2070</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -3032,7 +3032,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDCE2E9A-32FC-40AB-8329-C86E0BC41F62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12AC0BD-B0BA-4F80-99FE-BD2A1C00E6FA}">
   <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3163,34 +3163,34 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>656</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>656</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3218,13 +3218,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3233,13 +3233,13 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3267,13 +3267,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -3282,13 +3282,13 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3310,34 +3310,34 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>896</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>896</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3359,34 +3359,34 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>661</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>661</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3414,13 +3414,13 @@
         <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -3429,13 +3429,13 @@
         <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3463,13 +3463,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3506,34 +3506,34 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>1317</v>
+        <v>896</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>1317</v>
+        <v>896</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3550,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3578,13 +3578,13 @@
         <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3593,19 +3593,19 @@
         <v>12</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>645</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3621,19 +3621,19 @@
         <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>645</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3648,13 +3648,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3676,13 +3676,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3697,13 +3697,13 @@
         <v>0</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -3725,13 +3725,13 @@
         <v>0</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3740,19 +3740,19 @@
         <v>15</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>992</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3768,19 +3768,19 @@
         <v>11</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>992</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3789,19 +3789,19 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>645</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3817,19 +3817,19 @@
         <v>11</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>645</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3838,19 +3838,19 @@
         <v>17</v>
       </c>
       <c r="C18" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="7">
-        <v>992</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -3866,19 +3866,19 @@
         <v>11</v>
       </c>
       <c r="M18" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" s="7">
-        <v>992</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3893,13 +3893,13 @@
         <v>1637</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3921,13 +3921,13 @@
         <v>1637</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3940,17 +3940,15 @@
       <c r="C20" s="7">
         <v>0</v>
       </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
+      <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3959,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>23</v>
@@ -3974,13 +3972,13 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3991,47 +3989,45 @@
       <c r="C21" s="7">
         <v>0</v>
       </c>
-      <c r="D21" s="7">
-        <v>0</v>
-      </c>
+      <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H21" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="7">
-        <v>0</v>
+        <v>656</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" s="7">
-        <v>0</v>
+        <v>656</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4042,47 +4038,45 @@
       <c r="C22" s="7">
         <v>0</v>
       </c>
-      <c r="D22" s="7">
-        <v>0</v>
-      </c>
+      <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H22" s="7">
-        <v>1</v>
-      </c>
-      <c r="I22" s="7">
-        <v>818</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>818</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,49 +4085,47 @@
         <v>14</v>
       </c>
       <c r="C23" s="7">
+        <v>0</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="7">
         <v>1</v>
       </c>
-      <c r="D23" s="7">
-        <v>942</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="I23" s="7">
+        <v>661</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7">
-        <v>0</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
       </c>
       <c r="N23" s="7">
-        <v>942</v>
+        <v>661</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4144,17 +4136,15 @@
       <c r="C24" s="7">
         <v>0</v>
       </c>
-      <c r="D24" s="7">
-        <v>0</v>
-      </c>
+      <c r="D24" s="7"/>
       <c r="E24" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4163,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>23</v>
@@ -4178,13 +4168,13 @@
         <v>0</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,17 +4185,15 @@
       <c r="C25" s="7">
         <v>0</v>
       </c>
-      <c r="D25" s="7">
-        <v>0</v>
-      </c>
+      <c r="D25" s="7"/>
       <c r="E25" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -4214,7 +4202,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>23</v>
@@ -4229,13 +4217,13 @@
         <v>0</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,17 +4234,15 @@
       <c r="C26" s="7">
         <v>0</v>
       </c>
-      <c r="D26" s="7">
-        <v>0</v>
-      </c>
+      <c r="D26" s="7"/>
       <c r="E26" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -4265,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>23</v>
@@ -4280,13 +4266,13 @@
         <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4295,54 +4281,52 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>1</v>
-      </c>
-      <c r="D27" s="7">
-        <v>942</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D27" s="7"/>
       <c r="E27" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="H27" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" s="7">
-        <v>818</v>
+        <v>1317</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M27" s="7">
         <v>2</v>
       </c>
       <c r="N27" s="7">
-        <v>1760</v>
+        <v>1317</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4367,13 +4351,13 @@
         <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -4382,13 +4366,13 @@
         <v>0</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4416,13 +4400,13 @@
         <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -4431,13 +4415,13 @@
         <v>0</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4465,13 +4449,13 @@
         <v>0</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -4480,13 +4464,13 @@
         <v>0</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4508,34 +4492,34 @@
         <v>11</v>
       </c>
       <c r="H31" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="7">
-        <v>0</v>
+        <v>627</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M31" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" s="7">
-        <v>0</v>
+        <v>627</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4557,34 +4541,34 @@
         <v>11</v>
       </c>
       <c r="H32" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>896</v>
+        <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M32" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32" s="7">
-        <v>896</v>
+        <v>0</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>22</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4612,13 +4596,13 @@
         <v>0</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -4627,13 +4611,13 @@
         <v>0</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4661,13 +4645,13 @@
         <v>0</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -4676,13 +4660,13 @@
         <v>0</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4707,36 +4691,36 @@
         <v>1</v>
       </c>
       <c r="I35" s="7">
-        <v>896</v>
+        <v>627</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
       </c>
       <c r="N35" s="7">
-        <v>896</v>
+        <v>627</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>10</v>
@@ -4744,45 +4728,47 @@
       <c r="C36" s="7">
         <v>0</v>
       </c>
-      <c r="D36" s="7"/>
+      <c r="D36" s="7">
+        <v>0</v>
+      </c>
       <c r="E36" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H36" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" s="7">
-        <v>0</v>
+        <v>818</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M36" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36" s="7">
-        <v>0</v>
+        <v>818</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4793,15 +4779,17 @@
       <c r="C37" s="7">
         <v>0</v>
       </c>
-      <c r="D37" s="7"/>
+      <c r="D37" s="7">
+        <v>0</v>
+      </c>
       <c r="E37" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -4810,13 +4798,13 @@
         <v>0</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -4825,7 +4813,7 @@
         <v>0</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>23</v>
@@ -4840,17 +4828,19 @@
         <v>13</v>
       </c>
       <c r="C38" s="7">
-        <v>0</v>
-      </c>
-      <c r="D38" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D38" s="7">
+        <v>942</v>
+      </c>
       <c r="E38" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -4859,28 +4849,28 @@
         <v>0</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M38" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N38" s="7">
-        <v>0</v>
+        <v>942</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4891,15 +4881,17 @@
       <c r="C39" s="7">
         <v>0</v>
       </c>
-      <c r="D39" s="7"/>
+      <c r="D39" s="7">
+        <v>0</v>
+      </c>
       <c r="E39" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -4908,13 +4900,13 @@
         <v>0</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -4923,7 +4915,7 @@
         <v>0</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>23</v>
@@ -4940,45 +4932,47 @@
       <c r="C40" s="7">
         <v>0</v>
       </c>
-      <c r="D40" s="7"/>
+      <c r="D40" s="7">
+        <v>0</v>
+      </c>
       <c r="E40" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H40" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" s="7">
-        <v>627</v>
+        <v>0</v>
       </c>
       <c r="J40" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M40" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N40" s="7">
-        <v>627</v>
+        <v>0</v>
       </c>
       <c r="O40" s="7" t="s">
         <v>22</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4989,15 +4983,17 @@
       <c r="C41" s="7">
         <v>0</v>
       </c>
-      <c r="D41" s="7"/>
+      <c r="D41" s="7">
+        <v>0</v>
+      </c>
       <c r="E41" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -5006,13 +5002,13 @@
         <v>0</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -5021,7 +5017,7 @@
         <v>0</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>23</v>
@@ -5038,15 +5034,17 @@
       <c r="C42" s="7">
         <v>0</v>
       </c>
-      <c r="D42" s="7"/>
+      <c r="D42" s="7">
+        <v>0</v>
+      </c>
       <c r="E42" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -5055,13 +5053,13 @@
         <v>0</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -5070,7 +5068,7 @@
         <v>0</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>23</v>
@@ -5085,47 +5083,49 @@
         <v>3</v>
       </c>
       <c r="C43" s="7">
-        <v>0</v>
-      </c>
-      <c r="D43" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D43" s="7">
+        <v>942</v>
+      </c>
       <c r="E43" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="H43" s="7">
         <v>1</v>
       </c>
       <c r="I43" s="7">
-        <v>627</v>
+        <v>818</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M43" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N43" s="7">
-        <v>627</v>
+        <v>1760</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -5142,25 +5142,25 @@
         <v>0</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H44" s="7">
         <v>1</v>
       </c>
       <c r="I44" s="7">
-        <v>656</v>
+        <v>818</v>
       </c>
       <c r="J44" s="7" t="s">
         <v>42</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L44" s="7" t="s">
         <v>43</v>
@@ -5169,13 +5169,13 @@
         <v>1</v>
       </c>
       <c r="N44" s="7">
-        <v>656</v>
+        <v>818</v>
       </c>
       <c r="O44" s="7" t="s">
         <v>44</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q44" s="7" t="s">
         <v>45</v>
@@ -5187,31 +5187,31 @@
         <v>12</v>
       </c>
       <c r="C45" s="7">
+        <v>0</v>
+      </c>
+      <c r="D45" s="7">
+        <v>0</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H45" s="7">
         <v>1</v>
       </c>
-      <c r="D45" s="7">
-        <v>645</v>
-      </c>
-      <c r="E45" s="7" t="s">
+      <c r="I45" s="7">
+        <v>656</v>
+      </c>
+      <c r="J45" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F45" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H45" s="7">
-        <v>0</v>
-      </c>
-      <c r="I45" s="7">
-        <v>0</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="K45" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L45" s="7" t="s">
         <v>47</v>
@@ -5220,13 +5220,13 @@
         <v>1</v>
       </c>
       <c r="N45" s="7">
-        <v>645</v>
+        <v>656</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>48</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q45" s="7" t="s">
         <v>49</v>
@@ -5238,31 +5238,31 @@
         <v>13</v>
       </c>
       <c r="C46" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" s="7">
-        <v>0</v>
+        <v>942</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H46" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" s="7">
-        <v>818</v>
+        <v>0</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L46" s="7" t="s">
         <v>51</v>
@@ -5271,13 +5271,13 @@
         <v>1</v>
       </c>
       <c r="N46" s="7">
-        <v>818</v>
+        <v>942</v>
       </c>
       <c r="O46" s="7" t="s">
         <v>52</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q46" s="7" t="s">
         <v>53</v>
@@ -5289,49 +5289,49 @@
         <v>14</v>
       </c>
       <c r="C47" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" s="7">
-        <v>942</v>
+        <v>0</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H47" s="7">
+        <v>3</v>
+      </c>
+      <c r="I47" s="7">
+        <v>2184</v>
+      </c>
+      <c r="J47" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F47" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H47" s="7">
-        <v>0</v>
-      </c>
-      <c r="I47" s="7">
-        <v>0</v>
-      </c>
-      <c r="J47" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="K47" s="7" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="M47" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N47" s="7">
-        <v>942</v>
+        <v>2184</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -5340,46 +5340,46 @@
         <v>15</v>
       </c>
       <c r="C48" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" s="7">
-        <v>0</v>
+        <v>992</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H48" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I48" s="7">
-        <v>2184</v>
+        <v>0</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="M48" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N48" s="7">
-        <v>2184</v>
+        <v>992</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="Q48" s="7" t="s">
         <v>61</v>
@@ -5391,19 +5391,19 @@
         <v>16</v>
       </c>
       <c r="C49" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" s="7">
-        <v>0</v>
+        <v>645</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -5412,28 +5412,28 @@
         <v>0</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M49" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N49" s="7">
-        <v>0</v>
+        <v>645</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -5442,19 +5442,19 @@
         <v>17</v>
       </c>
       <c r="C50" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" s="7">
-        <v>992</v>
+        <v>0</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -5463,25 +5463,25 @@
         <v>0</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M50" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N50" s="7">
-        <v>992</v>
+        <v>0</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q50" s="7" t="s">
         <v>65</v>
@@ -5499,13 +5499,13 @@
         <v>2579</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H51" s="7">
         <v>5</v>
@@ -5514,13 +5514,13 @@
         <v>3658</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M51" s="7">
         <v>8</v>
@@ -5529,13 +5529,13 @@
         <v>6237</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -5556,7 +5556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44749C01-EA85-4180-9401-4BB930A5E193}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A106A16-FF0A-4142-8BAE-4E3D5B4386DE}">
   <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6042,13 +6042,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -6070,13 +6070,13 @@
         <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6091,13 +6091,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -6119,13 +6119,13 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6140,13 +6140,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -6168,13 +6168,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6183,19 +6183,19 @@
         <v>14</v>
       </c>
       <c r="C15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="7">
-        <v>0</v>
+        <v>652</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -6211,19 +6211,19 @@
         <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="7">
-        <v>0</v>
+        <v>652</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6232,19 +6232,19 @@
         <v>15</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>652</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6260,19 +6260,19 @@
         <v>11</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>652</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>22</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6287,13 +6287,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -6315,13 +6315,13 @@
         <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6336,13 +6336,13 @@
         <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -6364,13 +6364,13 @@
         <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6385,13 +6385,13 @@
         <v>652</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -6413,13 +6413,13 @@
         <v>652</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6432,17 +6432,15 @@
       <c r="C20" s="7">
         <v>0</v>
       </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
+      <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6460,17 +6458,15 @@
       <c r="M20" s="7">
         <v>0</v>
       </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
+      <c r="N20" s="7"/>
       <c r="O20" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6481,17 +6477,15 @@
       <c r="C21" s="7">
         <v>0</v>
       </c>
-      <c r="D21" s="7">
-        <v>0</v>
-      </c>
+      <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -6509,17 +6503,15 @@
       <c r="M21" s="7">
         <v>0</v>
       </c>
-      <c r="N21" s="7">
-        <v>0</v>
-      </c>
+      <c r="N21" s="7"/>
       <c r="O21" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6530,17 +6522,15 @@
       <c r="C22" s="7">
         <v>0</v>
       </c>
-      <c r="D22" s="7">
-        <v>0</v>
-      </c>
+      <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6558,17 +6548,15 @@
       <c r="M22" s="7">
         <v>0</v>
       </c>
-      <c r="N22" s="7">
-        <v>0</v>
-      </c>
+      <c r="N22" s="7"/>
       <c r="O22" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6579,17 +6567,15 @@
       <c r="C23" s="7">
         <v>0</v>
       </c>
-      <c r="D23" s="7">
-        <v>0</v>
-      </c>
+      <c r="D23" s="7"/>
       <c r="E23" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -6607,17 +6593,15 @@
       <c r="M23" s="7">
         <v>0</v>
       </c>
-      <c r="N23" s="7">
-        <v>0</v>
-      </c>
+      <c r="N23" s="7"/>
       <c r="O23" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6628,17 +6612,15 @@
       <c r="C24" s="7">
         <v>0</v>
       </c>
-      <c r="D24" s="7">
-        <v>0</v>
-      </c>
+      <c r="D24" s="7"/>
       <c r="E24" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6656,17 +6638,15 @@
       <c r="M24" s="7">
         <v>0</v>
       </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
+      <c r="N24" s="7"/>
       <c r="O24" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6675,19 +6655,17 @@
         <v>16</v>
       </c>
       <c r="C25" s="7">
-        <v>1</v>
-      </c>
-      <c r="D25" s="7">
-        <v>576</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D25" s="7"/>
       <c r="E25" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -6703,19 +6681,17 @@
         <v>11</v>
       </c>
       <c r="M25" s="7">
-        <v>1</v>
-      </c>
-      <c r="N25" s="7">
-        <v>576</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N25" s="7"/>
       <c r="O25" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6726,17 +6702,15 @@
       <c r="C26" s="7">
         <v>0</v>
       </c>
-      <c r="D26" s="7">
-        <v>0</v>
-      </c>
+      <c r="D26" s="7"/>
       <c r="E26" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -6754,17 +6728,15 @@
       <c r="M26" s="7">
         <v>0</v>
       </c>
-      <c r="N26" s="7">
-        <v>0</v>
-      </c>
+      <c r="N26" s="7"/>
       <c r="O26" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6773,19 +6745,17 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>1</v>
-      </c>
-      <c r="D27" s="7">
-        <v>576</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D27" s="7"/>
       <c r="E27" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -6801,24 +6771,22 @@
         <v>11</v>
       </c>
       <c r="M27" s="7">
-        <v>1</v>
-      </c>
-      <c r="N27" s="7">
-        <v>576</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N27" s="7"/>
       <c r="O27" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7180,7 +7148,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>10</v>
@@ -7188,15 +7156,17 @@
       <c r="C36" s="7">
         <v>0</v>
       </c>
-      <c r="D36" s="7"/>
+      <c r="D36" s="7">
+        <v>0</v>
+      </c>
       <c r="E36" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -7214,15 +7184,17 @@
       <c r="M36" s="7">
         <v>0</v>
       </c>
-      <c r="N36" s="7"/>
+      <c r="N36" s="7">
+        <v>0</v>
+      </c>
       <c r="O36" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7233,15 +7205,17 @@
       <c r="C37" s="7">
         <v>0</v>
       </c>
-      <c r="D37" s="7"/>
+      <c r="D37" s="7">
+        <v>0</v>
+      </c>
       <c r="E37" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -7259,15 +7233,17 @@
       <c r="M37" s="7">
         <v>0</v>
       </c>
-      <c r="N37" s="7"/>
+      <c r="N37" s="7">
+        <v>0</v>
+      </c>
       <c r="O37" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7278,15 +7254,17 @@
       <c r="C38" s="7">
         <v>0</v>
       </c>
-      <c r="D38" s="7"/>
+      <c r="D38" s="7">
+        <v>0</v>
+      </c>
       <c r="E38" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -7304,15 +7282,17 @@
       <c r="M38" s="7">
         <v>0</v>
       </c>
-      <c r="N38" s="7"/>
+      <c r="N38" s="7">
+        <v>0</v>
+      </c>
       <c r="O38" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7323,15 +7303,17 @@
       <c r="C39" s="7">
         <v>0</v>
       </c>
-      <c r="D39" s="7"/>
+      <c r="D39" s="7">
+        <v>0</v>
+      </c>
       <c r="E39" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -7349,15 +7331,17 @@
       <c r="M39" s="7">
         <v>0</v>
       </c>
-      <c r="N39" s="7"/>
+      <c r="N39" s="7">
+        <v>0</v>
+      </c>
       <c r="O39" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -7368,15 +7352,17 @@
       <c r="C40" s="7">
         <v>0</v>
       </c>
-      <c r="D40" s="7"/>
+      <c r="D40" s="7">
+        <v>0</v>
+      </c>
       <c r="E40" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -7394,15 +7380,17 @@
       <c r="M40" s="7">
         <v>0</v>
       </c>
-      <c r="N40" s="7"/>
+      <c r="N40" s="7">
+        <v>0</v>
+      </c>
       <c r="O40" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7413,15 +7401,17 @@
       <c r="C41" s="7">
         <v>0</v>
       </c>
-      <c r="D41" s="7"/>
+      <c r="D41" s="7">
+        <v>0</v>
+      </c>
       <c r="E41" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -7439,15 +7429,17 @@
       <c r="M41" s="7">
         <v>0</v>
       </c>
-      <c r="N41" s="7"/>
+      <c r="N41" s="7">
+        <v>0</v>
+      </c>
       <c r="O41" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7456,17 +7448,19 @@
         <v>17</v>
       </c>
       <c r="C42" s="7">
-        <v>0</v>
-      </c>
-      <c r="D42" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D42" s="7">
+        <v>576</v>
+      </c>
       <c r="E42" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -7482,17 +7476,19 @@
         <v>11</v>
       </c>
       <c r="M42" s="7">
-        <v>0</v>
-      </c>
-      <c r="N42" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N42" s="7">
+        <v>576</v>
+      </c>
       <c r="O42" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7501,17 +7497,19 @@
         <v>3</v>
       </c>
       <c r="C43" s="7">
-        <v>0</v>
-      </c>
-      <c r="D43" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D43" s="7">
+        <v>576</v>
+      </c>
       <c r="E43" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -7527,17 +7525,19 @@
         <v>11</v>
       </c>
       <c r="M43" s="7">
-        <v>0</v>
-      </c>
-      <c r="N43" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N43" s="7">
+        <v>576</v>
+      </c>
       <c r="O43" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7554,13 +7554,13 @@
         <v>0</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -7582,13 +7582,13 @@
         <v>0</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7603,13 +7603,13 @@
         <v>0</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -7631,13 +7631,13 @@
         <v>0</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P45" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -7652,13 +7652,13 @@
         <v>0</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -7680,13 +7680,13 @@
         <v>0</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7695,19 +7695,19 @@
         <v>14</v>
       </c>
       <c r="C47" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" s="7">
-        <v>0</v>
+        <v>652</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -7723,19 +7723,19 @@
         <v>11</v>
       </c>
       <c r="M47" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N47" s="7">
-        <v>0</v>
+        <v>652</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7744,19 +7744,19 @@
         <v>15</v>
       </c>
       <c r="C48" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" s="7">
-        <v>652</v>
+        <v>0</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H48" s="7">
         <v>0</v>
@@ -7772,19 +7772,19 @@
         <v>11</v>
       </c>
       <c r="M48" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N48" s="7">
-        <v>652</v>
+        <v>0</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7793,19 +7793,19 @@
         <v>16</v>
       </c>
       <c r="C49" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49" s="7">
-        <v>576</v>
+        <v>0</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -7821,19 +7821,19 @@
         <v>11</v>
       </c>
       <c r="M49" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N49" s="7">
-        <v>576</v>
+        <v>0</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7842,19 +7842,19 @@
         <v>17</v>
       </c>
       <c r="C50" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" s="7">
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -7870,19 +7870,19 @@
         <v>11</v>
       </c>
       <c r="M50" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50" s="7">
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -7897,13 +7897,13 @@
         <v>1228</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
@@ -7925,13 +7925,13 @@
         <v>1228</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP12BS03-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP12BS03-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C681A31D-E432-47F8-A345-F05F829EEED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA709CC5-94F1-4C2B-9C9D-B63A840FA04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{6E23A530-9F41-4A19-87F6-E6276FC2FCCD}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EF3ED35F-9719-44E3-B245-ADDC2A04C0BE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="70">
   <si>
     <t>Menores según el tipo de dolor sufrido que le limita 3 en 2007 (Tasa respuesta: 0,14%)</t>
   </si>
@@ -70,28 +70,28 @@
     <t>Menos de 2</t>
   </si>
   <si>
-    <t>Dolor de cabeza</t>
+    <t>Otros</t>
   </si>
   <si>
     <t>—%</t>
   </si>
   <si>
-    <t>Contusión, lesión o heridas</t>
+    <t>Dolor abdominal</t>
+  </si>
+  <si>
+    <t>Vómitos</t>
+  </si>
+  <si>
+    <t>Fiebre</t>
   </si>
   <si>
     <t>Dolor de oídos, otitis</t>
   </si>
   <si>
-    <t>Fiebre</t>
+    <t>Contusión, lesión o heridas</t>
   </si>
   <si>
-    <t>Vómitos</t>
-  </si>
-  <si>
-    <t>Dolor abdominal</t>
-  </si>
-  <si>
-    <t>Otros</t>
+    <t>Dolor de cabeza</t>
   </si>
   <si>
     <t>2/10</t>
@@ -121,13 +121,13 @@
     <t>44,41%</t>
   </si>
   <si>
-    <t>51,86%</t>
+    <t>48,14%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>33,83%</t>
+    <t>31,4%</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -139,43 +139,82 @@
     <t>34,77%</t>
   </si>
   <si>
-    <t>48,14%</t>
+    <t>51,86%</t>
   </si>
   <si>
-    <t>31,4%</t>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
   <si>
     <t>Menores según el tipo de dolor sufrido que le limita 3 en 2012 (Tasa respuesta: 0,38%)</t>
   </si>
   <si>
+    <t>39,42%</t>
+  </si>
+  <si>
     <t>60,58%</t>
   </si>
   <si>
-    <t>39,42%</t>
+    <t>50,21%</t>
   </si>
   <si>
     <t>49,79%</t>
   </si>
   <si>
-    <t>50,21%</t>
+    <t>53,51%</t>
   </si>
   <si>
     <t>46,49%</t>
   </si>
   <si>
-    <t>53,51%</t>
+    <t>30,57%</t>
   </si>
   <si>
-    <t>22,37%</t>
+    <t>20,75%</t>
   </si>
   <si>
-    <t>75,62%</t>
+    <t>25,02%</t>
   </si>
   <si>
-    <t>13,12%</t>
+    <t>10,35%</t>
   </si>
   <si>
-    <t>58,72%</t>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
   </si>
   <si>
     <t>17,92%</t>
@@ -187,64 +226,28 @@
     <t>10,51%</t>
   </si>
   <si>
-    <t>56,56%</t>
+    <t>59,36%</t>
   </si>
   <si>
-    <t>36,52%</t>
+    <t>22,37%</t>
   </si>
   <si>
-    <t>30,57%</t>
+    <t>79,2%</t>
   </si>
   <si>
-    <t>15,1%</t>
+    <t>13,12%</t>
   </si>
   <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
+    <t>58,7%</t>
   </si>
   <si>
     <t>Menores según el tipo de dolor sufrido que le limita 3 en 2015 (Tasa respuesta: 0,09%)</t>
   </si>
   <si>
-    <t>53,13%</t>
+    <t>46,87%</t>
   </si>
   <si>
-    <t>46,87%</t>
+    <t>53,13%</t>
   </si>
 </sst>
 </file>
@@ -255,7 +258,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -351,39 +354,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -435,7 +438,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -546,13 +549,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -561,6 +557,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -625,19 +628,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DA24097-C126-405E-8FA9-7ACDDB9B87AF}">
-  <dimension ref="A1:Q51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54DE056D-97CB-4112-998A-FB2AE3022061}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2253,19 +2276,19 @@
         <v>12</v>
       </c>
       <c r="C37" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" s="7">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -2283,19 +2306,19 @@
         <v>25</v>
       </c>
       <c r="M37" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N37" s="7">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2304,43 +2327,43 @@
         <v>13</v>
       </c>
       <c r="C38" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H38" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" s="7">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M38" s="7">
         <v>1</v>
       </c>
       <c r="N38" s="7">
-        <v>720</v>
+        <v>650</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>22</v>
@@ -2406,43 +2429,43 @@
         <v>15</v>
       </c>
       <c r="C40" s="7">
+        <v>0</v>
+      </c>
+      <c r="D40" s="7">
+        <v>0</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H40" s="7">
         <v>1</v>
       </c>
-      <c r="D40" s="7">
-        <v>650</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" s="7" t="s">
+      <c r="I40" s="7">
+        <v>720</v>
+      </c>
+      <c r="J40" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H40" s="7">
-        <v>0</v>
-      </c>
-      <c r="I40" s="7">
-        <v>0</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="K40" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M40" s="7">
         <v>1</v>
       </c>
       <c r="N40" s="7">
-        <v>650</v>
+        <v>720</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>22</v>
@@ -2457,19 +2480,19 @@
         <v>16</v>
       </c>
       <c r="C41" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" s="7">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -2487,19 +2510,19 @@
         <v>25</v>
       </c>
       <c r="M41" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41" s="7">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -2663,19 +2686,19 @@
         <v>12</v>
       </c>
       <c r="C45" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" s="7">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -2693,19 +2716,19 @@
         <v>25</v>
       </c>
       <c r="M45" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N45" s="7">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -2714,43 +2737,43 @@
         <v>13</v>
       </c>
       <c r="C46" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" s="7">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H46" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" s="7">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M46" s="7">
         <v>1</v>
       </c>
       <c r="N46" s="7">
-        <v>720</v>
+        <v>650</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>22</v>
@@ -2816,43 +2839,43 @@
         <v>15</v>
       </c>
       <c r="C48" s="7">
+        <v>0</v>
+      </c>
+      <c r="D48" s="7">
+        <v>0</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H48" s="7">
         <v>1</v>
       </c>
-      <c r="D48" s="7">
-        <v>650</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G48" s="7" t="s">
+      <c r="I48" s="7">
+        <v>720</v>
+      </c>
+      <c r="J48" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H48" s="7">
-        <v>0</v>
-      </c>
-      <c r="I48" s="7">
-        <v>0</v>
-      </c>
-      <c r="J48" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="K48" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M48" s="7">
         <v>1</v>
       </c>
       <c r="N48" s="7">
-        <v>650</v>
+        <v>720</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P48" s="7" t="s">
         <v>22</v>
@@ -2867,19 +2890,19 @@
         <v>16</v>
       </c>
       <c r="C49" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" s="7">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -2897,19 +2920,19 @@
         <v>25</v>
       </c>
       <c r="M49" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N49" s="7">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3012,6 +3035,11 @@
       </c>
       <c r="Q51" s="7" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -3032,8 +3060,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12AC0BD-B0BA-4F80-99FE-BD2A1C00E6FA}">
-  <dimension ref="A1:Q51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{134C61E0-A412-43B5-BC16-4351893E1729}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3049,7 +3077,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3593,19 +3621,19 @@
         <v>12</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>645</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3621,19 +3649,19 @@
         <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>645</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3642,19 +3670,19 @@
         <v>13</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>992</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3670,19 +3698,19 @@
         <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>992</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3740,19 +3768,19 @@
         <v>15</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>992</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3768,19 +3796,19 @@
         <v>11</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>992</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3789,19 +3817,19 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>645</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3817,19 +3845,19 @@
         <v>11</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>645</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4000,34 +4028,34 @@
         <v>11</v>
       </c>
       <c r="H21" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" s="7">
-        <v>656</v>
+        <v>0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M21" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" s="7">
-        <v>656</v>
+        <v>0</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4196,34 +4224,34 @@
         <v>11</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>656</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>656</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4741,34 +4769,34 @@
         <v>25</v>
       </c>
       <c r="H36" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" s="7">
-        <v>818</v>
+        <v>0</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M36" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N36" s="7">
-        <v>818</v>
+        <v>0</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,19 +4856,19 @@
         <v>13</v>
       </c>
       <c r="C38" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" s="7">
-        <v>942</v>
+        <v>0</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -4858,19 +4886,19 @@
         <v>25</v>
       </c>
       <c r="M38" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38" s="7">
-        <v>942</v>
+        <v>0</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4930,19 +4958,19 @@
         <v>15</v>
       </c>
       <c r="C40" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" s="7">
-        <v>0</v>
+        <v>942</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -4960,19 +4988,19 @@
         <v>25</v>
       </c>
       <c r="M40" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40" s="7">
-        <v>0</v>
+        <v>942</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -5047,34 +5075,34 @@
         <v>25</v>
       </c>
       <c r="H42" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" s="7">
-        <v>0</v>
+        <v>818</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M42" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N42" s="7">
-        <v>0</v>
+        <v>818</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -5151,34 +5179,34 @@
         <v>26</v>
       </c>
       <c r="H44" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" s="7">
-        <v>818</v>
+        <v>0</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L44" s="7" t="s">
         <v>43</v>
       </c>
       <c r="M44" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N44" s="7">
-        <v>818</v>
+        <v>0</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5187,49 +5215,49 @@
         <v>12</v>
       </c>
       <c r="C45" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" s="7">
-        <v>0</v>
+        <v>645</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H45" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" s="7">
-        <v>656</v>
+        <v>0</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M45" s="7">
         <v>1</v>
       </c>
       <c r="N45" s="7">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P45" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -5241,10 +5269,10 @@
         <v>1</v>
       </c>
       <c r="D46" s="7">
-        <v>942</v>
+        <v>992</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>22</v>
@@ -5265,22 +5293,22 @@
         <v>23</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="M46" s="7">
         <v>1</v>
       </c>
       <c r="N46" s="7">
-        <v>942</v>
+        <v>992</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -5310,10 +5338,10 @@
         <v>2184</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L47" s="7" t="s">
         <v>28</v>
@@ -5325,13 +5353,13 @@
         <v>2184</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -5343,10 +5371,10 @@
         <v>1</v>
       </c>
       <c r="D48" s="7">
-        <v>992</v>
+        <v>942</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>22</v>
@@ -5367,22 +5395,22 @@
         <v>23</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="M48" s="7">
         <v>1</v>
       </c>
       <c r="N48" s="7">
-        <v>992</v>
+        <v>942</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P48" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -5391,49 +5419,49 @@
         <v>16</v>
       </c>
       <c r="C49" s="7">
+        <v>0</v>
+      </c>
+      <c r="D49" s="7">
+        <v>0</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H49" s="7">
         <v>1</v>
       </c>
-      <c r="D49" s="7">
-        <v>645</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H49" s="7">
-        <v>0</v>
-      </c>
       <c r="I49" s="7">
-        <v>0</v>
+        <v>656</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="M49" s="7">
         <v>1</v>
       </c>
       <c r="N49" s="7">
-        <v>645</v>
+        <v>656</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P49" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -5457,34 +5485,34 @@
         <v>26</v>
       </c>
       <c r="H50" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" s="7">
-        <v>0</v>
+        <v>818</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="M50" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50" s="7">
-        <v>0</v>
+        <v>818</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -5536,6 +5564,11 @@
       </c>
       <c r="Q51" s="7" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -5556,8 +5589,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A106A16-FF0A-4142-8BAE-4E3D5B4386DE}">
-  <dimension ref="A1:Q51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4170136B-3EA1-4918-8F6E-6D198582781B}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5573,7 +5606,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7154,19 +7187,19 @@
         <v>10</v>
       </c>
       <c r="C36" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" s="7">
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -7182,19 +7215,19 @@
         <v>11</v>
       </c>
       <c r="M36" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36" s="7">
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7448,19 +7481,19 @@
         <v>17</v>
       </c>
       <c r="C42" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" s="7">
-        <v>576</v>
+        <v>0</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -7476,19 +7509,19 @@
         <v>11</v>
       </c>
       <c r="M42" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N42" s="7">
-        <v>576</v>
+        <v>0</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7548,19 +7581,19 @@
         <v>10</v>
       </c>
       <c r="C44" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" s="7">
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -7576,19 +7609,19 @@
         <v>11</v>
       </c>
       <c r="M44" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N44" s="7">
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7701,7 +7734,7 @@
         <v>652</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>22</v>
@@ -7729,7 +7762,7 @@
         <v>652</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>22</v>
@@ -7842,19 +7875,19 @@
         <v>17</v>
       </c>
       <c r="C50" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" s="7">
-        <v>576</v>
+        <v>0</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -7870,19 +7903,19 @@
         <v>11</v>
       </c>
       <c r="M50" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N50" s="7">
-        <v>576</v>
+        <v>0</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -7932,6 +7965,11 @@
       </c>
       <c r="Q51" s="7" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP12BS03-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP12BS03-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA709CC5-94F1-4C2B-9C9D-B63A840FA04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F75EC2DC-1C06-4B19-ADF9-9709BE7EBAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EF3ED35F-9719-44E3-B245-ADDC2A04C0BE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7BA22369-B409-46AF-9462-03B64B51BC37}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Otros</t>
@@ -94,13 +94,13 @@
     <t>Dolor de cabeza</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -181,7 +181,7 @@
     <t>10,35%</t>
   </si>
   <si>
-    <t>53,81%</t>
+    <t>46,69%</t>
   </si>
   <si>
     <t>38,46%</t>
@@ -190,22 +190,22 @@
     <t>15,9%</t>
   </si>
   <si>
-    <t>58,12%</t>
+    <t>60,82%</t>
   </si>
   <si>
     <t>59,71%</t>
   </si>
   <si>
-    <t>17,53%</t>
+    <t>16,81%</t>
   </si>
   <si>
     <t>35,02%</t>
   </si>
   <si>
-    <t>9,53%</t>
+    <t>9,96%</t>
   </si>
   <si>
-    <t>75,43%</t>
+    <t>73,51%</t>
   </si>
   <si>
     <t>36,52%</t>
@@ -214,34 +214,34 @@
     <t>15,1%</t>
   </si>
   <si>
-    <t>56,89%</t>
+    <t>56,33%</t>
   </si>
   <si>
     <t>17,92%</t>
   </si>
   <si>
-    <t>77,77%</t>
+    <t>79,88%</t>
   </si>
   <si>
     <t>10,51%</t>
   </si>
   <si>
-    <t>59,36%</t>
+    <t>50,78%</t>
   </si>
   <si>
     <t>22,37%</t>
   </si>
   <si>
-    <t>79,2%</t>
+    <t>83,19%</t>
   </si>
   <si>
     <t>13,12%</t>
   </si>
   <si>
-    <t>58,7%</t>
+    <t>51,79%</t>
   </si>
   <si>
-    <t>Menores según el tipo de dolor sufrido que le limita 3 en 2015 (Tasa respuesta: 0,09%)</t>
+    <t>Menores según el tipo de dolor sufrido que le limita 3 en 2016 (Tasa respuesta: 0,09%)</t>
   </si>
   <si>
     <t>46,87%</t>
@@ -659,7 +659,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54DE056D-97CB-4112-998A-FB2AE3022061}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A159F7-8680-4030-8555-C79C2AB37CF4}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3060,7 +3060,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{134C61E0-A412-43B5-BC16-4351893E1729}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56DE7500-C240-4757-94B7-808245F128FC}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5589,7 +5589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4170136B-3EA1-4918-8F6E-6D198582781B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F63FE0E9-E883-40F4-B61C-222CC8ACFE37}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
